--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Pulpit\Studia\magisterka\semestr 3\zarzadzanie projektem zespolowoym\zarzadzanie-projekten-informatycznym\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Desktop\magisterka\semestr 3\zarzadzanie projektem informatyczny\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BC3F46-DC10-4442-BC93-B4A726F7E31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85BB44B-1737-4BAB-9C30-52BB56476CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Opis zaległości</t>
   </si>
@@ -99,12 +99,6 @@
   </si>
   <si>
     <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>lacznie 320 h</t>
-  </si>
-  <si>
-    <t>max 360</t>
   </si>
 </sst>
 </file>
@@ -271,6 +265,7 @@
     <xf numFmtId="2" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -280,10 +275,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -689,56 +683,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R22"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.26953125" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="18" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="55.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="18" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-    </row>
-    <row r="2" spans="1:18" ht="17.5" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+    </row>
+    <row r="2" spans="1:18" ht="17.45" customHeight="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="1">
         <v>1</v>
       </c>
@@ -782,7 +779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="19" customHeight="1">
+    <row r="3" spans="1:18" ht="18.95" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -839,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="19" customHeight="1">
+    <row r="4" spans="1:18" ht="18.95" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -896,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="19" customHeight="1">
+    <row r="5" spans="1:18" ht="18.95" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -953,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="19" customHeight="1">
+    <row r="6" spans="1:18" ht="18.95" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -963,67 +960,67 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9">
-        <f>SUM(D3:D5)</f>
+        <f t="shared" ref="D6:R6" si="1">SUM(D3:D5)</f>
         <v>83.2</v>
       </c>
       <c r="E6" s="9">
-        <f>SUM(E3:E5)</f>
+        <f t="shared" si="1"/>
         <v>83.2</v>
       </c>
       <c r="F6" s="9">
-        <f>SUM(F3:F5)</f>
+        <f t="shared" si="1"/>
         <v>75.2</v>
       </c>
       <c r="G6" s="9">
-        <f>SUM(G3:G5)</f>
+        <f t="shared" si="1"/>
         <v>67.2</v>
       </c>
       <c r="H6" s="9">
-        <f>SUM(H3:H5)</f>
+        <f t="shared" si="1"/>
         <v>59.2</v>
       </c>
       <c r="I6" s="9">
-        <f>SUM(I3:I5)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="J6" s="9">
-        <f>SUM(J3:J5)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="K6" s="9">
-        <f>SUM(K3:K5)</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="L6" s="9">
-        <f>SUM(L3:L5)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="M6" s="9">
-        <f>SUM(M3:M5)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="N6" s="9">
-        <f>SUM(N3:N5)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="O6" s="9">
-        <f>SUM(O3:O5)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P6" s="9">
-        <f>SUM(P3:P5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q6" s="9">
-        <f>SUM(Q3:Q5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R6" s="9">
-        <f>SUM(R3:R5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="19" customHeight="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="18.95" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -1080,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="19" customHeight="1">
+    <row r="8" spans="1:18" ht="18.95" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
@@ -1091,7 +1088,7 @@
         <v>0.3</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ref="D8" si="1" xml:space="preserve"> B8 * (1 + C8)</f>
+        <f t="shared" ref="D8" si="2" xml:space="preserve"> B8 * (1 + C8)</f>
         <v>20.8</v>
       </c>
       <c r="E8" s="5">
@@ -1137,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19" customHeight="1">
+    <row r="9" spans="1:18" ht="18.95" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -1194,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="19" customHeight="1">
+    <row r="10" spans="1:18" ht="18.95" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1204,67 +1201,67 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9">
-        <f>SUM(D7:D9)</f>
+        <f t="shared" ref="D10:R10" si="3">SUM(D7:D9)</f>
         <v>85.6</v>
       </c>
       <c r="E10" s="9">
-        <f>SUM(E7:E9)</f>
+        <f t="shared" si="3"/>
         <v>85.600000000000009</v>
       </c>
       <c r="F10" s="9">
-        <f>SUM(F7:F9)</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="G10" s="9">
-        <f>SUM(G7:G9)</f>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="H10" s="9">
-        <f>SUM(H7:H9)</f>
+        <f t="shared" si="3"/>
         <v>63.8</v>
       </c>
       <c r="I10" s="9">
-        <f>SUM(I7:I9)</f>
+        <f t="shared" si="3"/>
         <v>50.8</v>
       </c>
       <c r="J10" s="9">
-        <f>SUM(J7:J9)</f>
+        <f t="shared" si="3"/>
         <v>40.799999999999997</v>
       </c>
       <c r="K10" s="9">
-        <f>SUM(K7:K9)</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="L10" s="9">
-        <f>SUM(L7:L9)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="M10" s="9">
-        <f>SUM(M7:M9)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N10" s="9">
-        <f>SUM(N7:N9)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O10" s="9">
-        <f>SUM(O7:O9)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P10" s="9">
-        <f>SUM(P7:P9)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q10" s="9">
-        <f>SUM(Q7:Q9)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R10" s="9">
-        <f>SUM(R7:R9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="19" customHeight="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="18.95" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
@@ -1321,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="19" customHeight="1">
+    <row r="12" spans="1:18" ht="18.95" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -1378,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="19" customHeight="1">
+    <row r="13" spans="1:18" ht="18.95" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
@@ -1389,7 +1386,7 @@
         <v>0.5</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" ref="D13" si="2" xml:space="preserve"> B13 * (1 + C13)</f>
+        <f t="shared" ref="D13" si="4" xml:space="preserve"> B13 * (1 + C13)</f>
         <v>24</v>
       </c>
       <c r="E13" s="5">
@@ -1435,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="19" customHeight="1">
+    <row r="14" spans="1:18" ht="18.95" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
@@ -1449,63 +1446,63 @@
         <v>84.800000000000011</v>
       </c>
       <c r="E14" s="9">
-        <f>SUM(E12:E13)</f>
+        <f t="shared" ref="E14:R14" si="5">SUM(E12:E13)</f>
         <v>46.4</v>
       </c>
       <c r="F14" s="9">
-        <f>SUM(F12:F13)</f>
+        <f t="shared" si="5"/>
         <v>46.4</v>
       </c>
       <c r="G14" s="9">
-        <f>SUM(G12:G13)</f>
+        <f t="shared" si="5"/>
         <v>46.4</v>
       </c>
       <c r="H14" s="9">
-        <f>SUM(H12:H13)</f>
+        <f t="shared" si="5"/>
         <v>46.4</v>
       </c>
       <c r="I14" s="9">
-        <f>SUM(I12:I13)</f>
+        <f t="shared" si="5"/>
         <v>46.4</v>
       </c>
       <c r="J14" s="9">
-        <f>SUM(J12:J13)</f>
+        <f t="shared" si="5"/>
         <v>46.4</v>
       </c>
       <c r="K14" s="9">
-        <f>SUM(K12:K13)</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="L14" s="9">
-        <f>SUM(L12:L13)</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="M14" s="9">
-        <f>SUM(M12:M13)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="N14" s="9">
-        <f>SUM(N12:N13)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="O14" s="9">
-        <f>SUM(O12:O13)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="P14" s="9">
-        <f>SUM(P12:P13)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q14" s="9">
-        <f>SUM(Q12:Q13)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R14" s="9">
-        <f>SUM(R12:R13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="19" customHeight="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="18.95" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1562,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="19" customHeight="1">
+    <row r="16" spans="1:18" ht="18.95" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
@@ -1573,7 +1570,7 @@
         <v>0.4</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" ref="D16" si="3" xml:space="preserve"> B16 * (1 + C16)</f>
+        <f t="shared" ref="D16" si="6" xml:space="preserve"> B16 * (1 + C16)</f>
         <v>22.4</v>
       </c>
       <c r="E16" s="5">
@@ -1619,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="19" customHeight="1">
+    <row r="17" spans="1:18" ht="18.95" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>19</v>
       </c>
@@ -1676,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="19" customHeight="1">
+    <row r="18" spans="1:18" ht="18.95" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
@@ -1694,71 +1691,60 @@
         <v>92</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" ref="F18:R18" si="4">SUM(F15:F17)</f>
+        <f t="shared" ref="F18:R18" si="7">SUM(F15:F17)</f>
         <v>84</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>52.4</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="K18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="L18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="M18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>31.6</v>
       </c>
       <c r="N18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>23.6</v>
       </c>
       <c r="O18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>19.600000000000001</v>
       </c>
       <c r="P18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="R18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="D21" s="15">
-        <f>SUM(D6,D10,D14,D18)</f>
-        <v>345.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
+      <c r="D21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1773,8 +1759,8 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>